--- a/DATABASE-progettazione.xlsx
+++ b/DATABASE-progettazione.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glori\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B29FB2-E8A1-4ACB-A3B2-A07FC31AAD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D45E083-9FC9-4D10-8D2F-7A2D473887C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{677A6D8D-3035-4557-8272-056AF9DCDC42}"/>
   </bookViews>
@@ -35,15 +35,81 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">BOARD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>ruolo</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>anno</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>longblob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLUNTEERS </t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,13 +132,158 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Nova"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +294,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D245D526-6274-48F6-B9B3-C6C92DA29C07}" name="Tabella1" displayName="Tabella1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:C7" xr:uid="{D245D526-6274-48F6-B9B3-C6C92DA29C07}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{692E73C2-4557-4043-8304-F19F843BEF8B}" name="BOARD " dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4B02BF57-2BE9-4B28-A063-455684F2B815}" name=" " dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{69869AF7-E16F-4FD7-9BB0-EFEFB93A2E02}" name="     " dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F452992-6B42-41FE-8DDB-D1C4BEACF986}" name="Tabella13" displayName="Tabella13" ref="A10:C16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A10:C16" xr:uid="{8F452992-6B42-41FE-8DDB-D1C4BEACF986}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D56DC75A-E47B-4DA3-85CC-5AD013F320B0}" name="VOLUNTEERS " dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3A75B9BC-1377-4E37-A11E-FFEA31235A48}" name=" " dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2EC7830F-4894-4999-9BA1-146CF543EDE7}" name="     " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +625,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E25E27-3BF9-48D8-A553-7CD1703C8BFD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>